--- a/Code/Results/Cases/Case_2_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.08064608105533</v>
+        <v>7.969501905455152</v>
       </c>
       <c r="C2">
-        <v>7.777847148188742</v>
+        <v>6.084422703784226</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.64256862991769</v>
+        <v>16.54411591767483</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>15.37769949459491</v>
+        <v>20.51507237767653</v>
       </c>
       <c r="H2">
-        <v>7.197402516811008</v>
+        <v>12.30069744046832</v>
       </c>
       <c r="I2">
-        <v>10.34298568651209</v>
+        <v>17.34948785135405</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.93826214801129</v>
+        <v>8.711901111011615</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.18889973096917</v>
+        <v>16.77778700103762</v>
       </c>
       <c r="O2">
-        <v>10.91923509720443</v>
+        <v>17.6064824593357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28844190818016</v>
+        <v>7.612625872626752</v>
       </c>
       <c r="C3">
-        <v>7.411343975829618</v>
+        <v>5.932719202731974</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.52281880185566</v>
+        <v>15.60481914985754</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>15.17546880040313</v>
+        <v>20.59319091330862</v>
       </c>
       <c r="H3">
-        <v>7.284990602645259</v>
+        <v>12.34732965362978</v>
       </c>
       <c r="I3">
-        <v>10.55009916304456</v>
+        <v>17.43962108630139</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.31476248219586</v>
+        <v>8.427911136948099</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.32572167314433</v>
+        <v>16.8230996316076</v>
       </c>
       <c r="O3">
-        <v>10.99843800028052</v>
+        <v>17.68480531990892</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.77492811792378</v>
+        <v>7.385332595964393</v>
       </c>
       <c r="C4">
-        <v>7.176976164658799</v>
+        <v>5.836752153496916</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.1556706505134</v>
+        <v>15.00272673997845</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>15.07669513363881</v>
+        <v>20.64924646487091</v>
       </c>
       <c r="H4">
-        <v>7.343300743355743</v>
+        <v>12.37787218702763</v>
       </c>
       <c r="I4">
-        <v>10.68503354892194</v>
+        <v>17.49829683317963</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.91349778776035</v>
+        <v>8.246984652499183</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.41244863140536</v>
+        <v>16.85245122500565</v>
       </c>
       <c r="O4">
-        <v>11.05853866146348</v>
+        <v>17.73684927412804</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.55888245710425</v>
+        <v>7.290778529108358</v>
       </c>
       <c r="C5">
-        <v>7.079184960482776</v>
+        <v>5.796970715052074</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.58179983303424</v>
+        <v>14.75125974661054</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.04260303879304</v>
+        <v>20.67410983345193</v>
       </c>
       <c r="H5">
-        <v>7.368159949722728</v>
+        <v>12.39079900833029</v>
       </c>
       <c r="I5">
-        <v>10.74189871823176</v>
+        <v>17.52304620851023</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.74542617727838</v>
+        <v>8.1716751595724</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.44847819084703</v>
+        <v>16.86479775493279</v>
       </c>
       <c r="O5">
-        <v>11.08576361630603</v>
+        <v>17.75904955443883</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.5225996156534</v>
+        <v>7.27496529574907</v>
       </c>
       <c r="C6">
-        <v>7.062810921754835</v>
+        <v>5.790325398599843</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.48549052201421</v>
+        <v>14.70914371450483</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.03730684363128</v>
+        <v>20.67835996982557</v>
       </c>
       <c r="H6">
-        <v>7.372352915553766</v>
+        <v>12.39297452276874</v>
       </c>
       <c r="I6">
-        <v>10.75145256187136</v>
+        <v>17.52720647770467</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.71724582880419</v>
+        <v>8.159076741355706</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.45450252963528</v>
+        <v>16.86687119843541</v>
       </c>
       <c r="O6">
-        <v>11.09044509905421</v>
+        <v>17.76279574207554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.77204187189265</v>
+        <v>7.384065045046853</v>
       </c>
       <c r="C7">
-        <v>7.175666475449545</v>
+        <v>5.836218328238304</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.14799935526811</v>
+        <v>14.999359712655</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>15.07621074022619</v>
+        <v>20.64957362016941</v>
       </c>
       <c r="H7">
-        <v>7.34363161318073</v>
+        <v>12.37804457695294</v>
       </c>
       <c r="I7">
-        <v>10.68579293959591</v>
+        <v>17.49862721634075</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.91124942669044</v>
+        <v>8.245975306744432</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.41293174873822</v>
+        <v>16.85261617245658</v>
       </c>
       <c r="O7">
-        <v>11.05889495395448</v>
+        <v>17.73714466139774</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.81313112723073</v>
+        <v>7.848215898451278</v>
       </c>
       <c r="C8">
-        <v>7.653447467088174</v>
+        <v>6.032721064041188</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.92514383107722</v>
+        <v>16.22565488309331</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>15.30257205169795</v>
+        <v>20.54032018964961</v>
       </c>
       <c r="H8">
-        <v>7.22663628019295</v>
+        <v>12.31637986973932</v>
       </c>
       <c r="I8">
-        <v>10.41273912518979</v>
+        <v>17.37987406823349</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.72714855292851</v>
+        <v>8.615380584365468</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.23551436987834</v>
+        <v>16.79309391290696</v>
       </c>
       <c r="O8">
-        <v>10.94407127278573</v>
+        <v>17.63266634848792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63912950094719</v>
+        <v>8.688976730472502</v>
       </c>
       <c r="C9">
-        <v>8.514225186060676</v>
+        <v>6.394263622634827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.86236219632869</v>
+        <v>18.51991150758923</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>15.95647494157067</v>
+        <v>20.39086609009178</v>
       </c>
       <c r="H9">
-        <v>7.035219536628364</v>
+        <v>12.21060445998748</v>
       </c>
       <c r="I9">
-        <v>9.942724620794699</v>
+        <v>17.17343727168884</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.17821611549364</v>
+        <v>9.285130253034328</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.90897766346569</v>
+        <v>16.68846446862405</v>
       </c>
       <c r="O9">
-        <v>10.81693745247357</v>
+        <v>17.45925033676272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84934135784623</v>
+        <v>9.291192842729885</v>
       </c>
       <c r="C10">
-        <v>9.098243570716228</v>
+        <v>6.643654007435542</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.19722592207962</v>
+        <v>20.16011375280389</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>16.57416412214881</v>
+        <v>20.32132342866698</v>
       </c>
       <c r="H10">
-        <v>6.920894539576467</v>
+        <v>12.14211620115464</v>
       </c>
       <c r="I10">
-        <v>9.64341387508545</v>
+        <v>17.03786774348147</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.15115518403999</v>
+        <v>9.740800599173552</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.68185705897729</v>
+        <v>16.61890712498395</v>
       </c>
       <c r="O10">
-        <v>10.79329358436812</v>
+        <v>17.35115724205063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.37158050068918</v>
+        <v>9.573210733458268</v>
       </c>
       <c r="C11">
-        <v>9.353211962822296</v>
+        <v>6.753265785869981</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.65507874601707</v>
+        <v>20.86377456740234</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>16.88631719919249</v>
+        <v>20.29857340001278</v>
       </c>
       <c r="H11">
-        <v>6.875374391608411</v>
+        <v>12.11296042591209</v>
       </c>
       <c r="I11">
-        <v>9.518854499613262</v>
+        <v>16.97968680761712</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.5733156031142</v>
+        <v>9.939662485897566</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.58126369549828</v>
+        <v>16.58883953747797</v>
       </c>
       <c r="O11">
-        <v>10.79992338826649</v>
+        <v>17.30620605337252</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.56529556652786</v>
+        <v>9.677646113287517</v>
       </c>
       <c r="C12">
-        <v>9.448216602631964</v>
+        <v>6.794197690229827</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.19900330532465</v>
+        <v>21.12416015724998</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>17.00907662746554</v>
+        <v>20.29124653252499</v>
       </c>
       <c r="H12">
-        <v>6.859141865048139</v>
+        <v>12.1022074228034</v>
       </c>
       <c r="I12">
-        <v>9.473512619252993</v>
+        <v>16.95815712335235</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.73023341456068</v>
+        <v>10.01371741606239</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.54356054748922</v>
+        <v>16.57767922034431</v>
       </c>
       <c r="O12">
-        <v>10.8051226941139</v>
+        <v>17.28979364064147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.5237550568191</v>
+        <v>9.655259130647355</v>
       </c>
       <c r="C13">
-        <v>9.427824452945591</v>
+        <v>6.785408233898822</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.0822147105054</v>
+        <v>21.06835115681102</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>16.98243470172876</v>
+        <v>20.29276706345696</v>
       </c>
       <c r="H13">
-        <v>6.862591917777014</v>
+        <v>12.10451047940453</v>
       </c>
       <c r="I13">
-        <v>9.483193856714015</v>
+        <v>16.9627715868505</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.69656934655988</v>
+        <v>9.997824503372698</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.55166331187568</v>
+        <v>16.58007277166206</v>
       </c>
       <c r="O13">
-        <v>10.8038803197204</v>
+        <v>17.29330119152986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.38759848126149</v>
+        <v>9.581850018512855</v>
       </c>
       <c r="C14">
-        <v>9.361059054115293</v>
+        <v>6.756644945241762</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.69998844189094</v>
+        <v>20.88531822358878</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>16.89632507835783</v>
+        <v>20.29794474371929</v>
       </c>
       <c r="H14">
-        <v>6.874018355175597</v>
+        <v>12.11207000430963</v>
       </c>
       <c r="I14">
-        <v>9.515086621536595</v>
+        <v>16.97790548147816</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.58628435522466</v>
+        <v>9.945780278603705</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.57815404367192</v>
+        <v>16.58791685395447</v>
       </c>
       <c r="O14">
-        <v>10.80029616296137</v>
+        <v>17.30484356117453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.30367258298301</v>
+        <v>9.536577373750308</v>
       </c>
       <c r="C15">
-        <v>9.319961869709239</v>
+        <v>6.738950955617379</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.46481654526981</v>
+        <v>20.77241501713335</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>16.84417531220667</v>
+        <v>20.30128425713919</v>
       </c>
       <c r="H15">
-        <v>6.881150502917162</v>
+        <v>12.11673789551954</v>
       </c>
       <c r="I15">
-        <v>9.534864702790745</v>
+        <v>16.98724083573115</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.51834803327241</v>
+        <v>9.913737880073434</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.59443102455636</v>
+        <v>16.59275094137301</v>
       </c>
       <c r="O15">
-        <v>10.79845655714811</v>
+        <v>17.31199306651768</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81464429177268</v>
+        <v>9.272432782746746</v>
       </c>
       <c r="C16">
-        <v>9.081364590974395</v>
+        <v>6.63641131097028</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.10079234270903</v>
+        <v>20.11327592698186</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>16.55439793844475</v>
+        <v>20.32298990342154</v>
       </c>
       <c r="H16">
-        <v>6.924005947772613</v>
+        <v>12.1440618483502</v>
       </c>
       <c r="I16">
-        <v>9.651800589747166</v>
+        <v>17.04174026035316</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.12315401141744</v>
+        <v>9.727631595594504</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.68848568355103</v>
+        <v>16.62090372719425</v>
       </c>
       <c r="O16">
-        <v>10.79322623005559</v>
+        <v>17.3541800710407</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.50740910268475</v>
+        <v>9.106198526225542</v>
       </c>
       <c r="C17">
-        <v>8.932243527465253</v>
+        <v>6.572506042820933</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.24910622364265</v>
+        <v>19.69805961939161</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>16.38466887056211</v>
+        <v>20.33858907771597</v>
       </c>
       <c r="H17">
-        <v>6.952007213464433</v>
+        <v>12.16133647299826</v>
       </c>
       <c r="I17">
-        <v>9.726614038956804</v>
+        <v>17.07606802039474</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.87547353974113</v>
+        <v>9.611274829016768</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.7468811983492</v>
+        <v>16.63857723694932</v>
       </c>
       <c r="O17">
-        <v>10.79460392006047</v>
+        <v>17.38114340088217</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32803074147304</v>
+        <v>9.012600623841639</v>
       </c>
       <c r="C18">
-        <v>8.845465353322236</v>
+        <v>6.535389536220274</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.75364274045098</v>
+        <v>19.45523827114247</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>16.289975600952</v>
+        <v>20.34839708041192</v>
       </c>
       <c r="H18">
-        <v>6.968718687788431</v>
+        <v>12.17146061225906</v>
       </c>
       <c r="I18">
-        <v>9.770725853040776</v>
+        <v>17.09614094585363</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.73109062759425</v>
+        <v>9.543558471972394</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.78072535968623</v>
+        <v>16.64889080705414</v>
       </c>
       <c r="O18">
-        <v>10.79702125977488</v>
+        <v>17.39704912627913</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.26683803858889</v>
+        <v>8.983742870179821</v>
       </c>
       <c r="C19">
-        <v>8.81591103595723</v>
+        <v>6.522761479357531</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.58491516058687</v>
+        <v>19.37233515454393</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>16.2584148335015</v>
+        <v>20.35186111186997</v>
       </c>
       <c r="H19">
-        <v>6.974478869637974</v>
+        <v>12.1749207989079</v>
       </c>
       <c r="I19">
-        <v>9.785842534285601</v>
+        <v>17.10299370748925</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.68187503392417</v>
+        <v>9.520496264180505</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.79222856584985</v>
+        <v>16.65240828789184</v>
       </c>
       <c r="O19">
-        <v>10.79811310262417</v>
+        <v>17.40250265818697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54039046544843</v>
+        <v>9.124053509714576</v>
       </c>
       <c r="C20">
-        <v>8.94822208802691</v>
+        <v>6.579346294948437</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.34034620548571</v>
+        <v>19.74267384416363</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>16.4024329442634</v>
+        <v>20.33684194119139</v>
       </c>
       <c r="H20">
-        <v>6.948963220988734</v>
+        <v>12.15947807789887</v>
       </c>
       <c r="I20">
-        <v>9.71853704709968</v>
+        <v>17.07237977083548</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.90203872004779</v>
+        <v>9.623743365858379</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.7406383576873</v>
+        <v>16.6366805255479</v>
       </c>
       <c r="O20">
-        <v>10.79428772911621</v>
+        <v>17.37823198748417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42770054959868</v>
+        <v>9.603476140458667</v>
       </c>
       <c r="C21">
-        <v>9.380711653191053</v>
+        <v>6.765109224256903</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.81247508588167</v>
+        <v>20.93924406267622</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>16.92149348941159</v>
+        <v>20.2963888982448</v>
       </c>
       <c r="H21">
-        <v>6.870634252777999</v>
+        <v>12.1098417809859</v>
       </c>
       <c r="I21">
-        <v>9.505668024632966</v>
+        <v>16.97344665848957</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.61875766664033</v>
+        <v>9.961101128087309</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.57036252347198</v>
+        <v>16.5856067394885</v>
       </c>
       <c r="O21">
-        <v>10.80127442989587</v>
+        <v>17.30143672103718</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98404337857574</v>
+        <v>9.903055614602405</v>
       </c>
       <c r="C22">
-        <v>9.654357716512992</v>
+        <v>6.883150877927369</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.3809526767327</v>
+        <v>21.68587414653503</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>17.28729419132306</v>
+        <v>20.2774624093496</v>
       </c>
       <c r="H22">
-        <v>6.825337492038659</v>
+        <v>12.07907832149504</v>
       </c>
       <c r="I22">
-        <v>9.377277538164732</v>
+        <v>16.91171536899926</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.07001183995872</v>
+        <v>10.17428496795717</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.46134618961983</v>
+        <v>16.55354184059526</v>
       </c>
       <c r="O22">
-        <v>10.82160160138119</v>
+        <v>17.2548011881971</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68925981031233</v>
+        <v>9.744425455613275</v>
       </c>
       <c r="C23">
-        <v>9.509132371352981</v>
+        <v>6.82046507291373</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.54801102585665</v>
+        <v>21.29061186321919</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>17.08960950371052</v>
+        <v>20.28687334874227</v>
       </c>
       <c r="H23">
-        <v>6.8489482714329</v>
+        <v>12.09534390760209</v>
       </c>
       <c r="I23">
-        <v>9.444762433568222</v>
+        <v>16.94439457488055</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.8307391348299</v>
+        <v>10.06118401950767</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.51932336138112</v>
+        <v>16.57053542937664</v>
       </c>
       <c r="O23">
-        <v>10.80924760111176</v>
+        <v>17.27936531992367</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.52548814230719</v>
+        <v>9.115986189770844</v>
       </c>
       <c r="C24">
-        <v>8.941001439740562</v>
+        <v>6.576254987935873</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.29911475903749</v>
+        <v>19.72251655142715</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>16.39439282225729</v>
+        <v>20.33762920635358</v>
       </c>
       <c r="H24">
-        <v>6.950337505472176</v>
+        <v>12.16031765797333</v>
       </c>
       <c r="I24">
-        <v>9.722185238817165</v>
+        <v>17.07404617735142</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.89003479392547</v>
+        <v>9.618108895616725</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.74345989915631</v>
+        <v>16.63753755262994</v>
       </c>
       <c r="O24">
-        <v>10.79442563091128</v>
+        <v>17.37954697875008</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16825691032758</v>
+        <v>8.469545120792024</v>
       </c>
       <c r="C25">
-        <v>8.289758425827902</v>
+        <v>6.299192273888914</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.57943328742437</v>
+        <v>17.87801031873708</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>15.75601776820977</v>
+        <v>20.42427881740284</v>
       </c>
       <c r="H25">
-        <v>7.082627390997935</v>
+        <v>12.23759884959209</v>
       </c>
       <c r="I25">
-        <v>10.0622889078873</v>
+        <v>17.22645557613428</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.80190653922756</v>
+        <v>9.110137549535434</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.99505244355584</v>
+        <v>16.71548092939526</v>
       </c>
       <c r="O25">
-        <v>10.83982245331526</v>
+        <v>17.50278163412587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.969501905455152</v>
+        <v>13.08064608105541</v>
       </c>
       <c r="C2">
-        <v>6.084422703784226</v>
+        <v>7.777847148188815</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.54411591767483</v>
+        <v>29.64256862991769</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>20.51507237767653</v>
+        <v>15.3776994945949</v>
       </c>
       <c r="H2">
-        <v>12.30069744046832</v>
+        <v>7.197402516810899</v>
       </c>
       <c r="I2">
-        <v>17.34948785135405</v>
+        <v>10.3429856865121</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.711901111011615</v>
+        <v>11.93826214801137</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.77778700103762</v>
+        <v>11.18889973096916</v>
       </c>
       <c r="O2">
-        <v>17.6064824593357</v>
+        <v>10.91923509720434</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.612625872626752</v>
+        <v>12.28844190818013</v>
       </c>
       <c r="C3">
-        <v>5.932719202731974</v>
+        <v>7.411343975829607</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.60481914985754</v>
+        <v>27.52281880185565</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>20.59319091330862</v>
+        <v>15.17546880040326</v>
       </c>
       <c r="H3">
-        <v>12.34732965362978</v>
+        <v>7.284990602645139</v>
       </c>
       <c r="I3">
-        <v>17.43962108630139</v>
+        <v>10.55009916304457</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.427911136948099</v>
+        <v>11.31476248219579</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.8230996316076</v>
+        <v>11.32572167314429</v>
       </c>
       <c r="O3">
-        <v>17.68480531990892</v>
+        <v>10.99843800028056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.385332595964393</v>
+        <v>11.77492811792379</v>
       </c>
       <c r="C4">
-        <v>5.836752153496916</v>
+        <v>7.176976164658605</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.00272673997845</v>
+        <v>26.1556706505134</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>20.64924646487091</v>
+        <v>15.07669513363901</v>
       </c>
       <c r="H4">
-        <v>12.37787218702763</v>
+        <v>7.343300743355803</v>
       </c>
       <c r="I4">
-        <v>17.49829683317963</v>
+        <v>10.68503354892198</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.246984652499183</v>
+        <v>10.91349778776029</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.85245122500565</v>
+        <v>11.41244863140539</v>
       </c>
       <c r="O4">
-        <v>17.73684927412804</v>
+        <v>11.05853866146362</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.290778529108358</v>
+        <v>11.55888245710431</v>
       </c>
       <c r="C5">
-        <v>5.796970715052074</v>
+        <v>7.079184960482864</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.75125974661054</v>
+        <v>25.58179983303422</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>20.67410983345193</v>
+        <v>15.04260303879283</v>
       </c>
       <c r="H5">
-        <v>12.39079900833029</v>
+        <v>7.368159949722735</v>
       </c>
       <c r="I5">
-        <v>17.52304620851023</v>
+        <v>10.74189871823174</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.1716751595724</v>
+        <v>10.74542617727845</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.86479775493279</v>
+        <v>11.44847819084703</v>
       </c>
       <c r="O5">
-        <v>17.75904955443883</v>
+        <v>11.08576361630594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.27496529574907</v>
+        <v>11.52259961565339</v>
       </c>
       <c r="C6">
-        <v>5.790325398599843</v>
+        <v>7.062810921754924</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.70914371450483</v>
+        <v>25.48549052201425</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>20.67835996982557</v>
+        <v>15.03730684363121</v>
       </c>
       <c r="H6">
-        <v>12.39297452276874</v>
+        <v>7.372352915553646</v>
       </c>
       <c r="I6">
-        <v>17.52720647770467</v>
+        <v>10.75145256187131</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.159076741355706</v>
+        <v>10.71724582880417</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.86687119843541</v>
+        <v>11.45450252963517</v>
       </c>
       <c r="O6">
-        <v>17.76279574207554</v>
+        <v>11.09044509905414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.384065045046853</v>
+        <v>11.77204187189269</v>
       </c>
       <c r="C7">
-        <v>5.836218328238304</v>
+        <v>7.175666475449609</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.999359712655</v>
+        <v>26.14799935526817</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.64957362016941</v>
+        <v>15.07621074022625</v>
       </c>
       <c r="H7">
-        <v>12.37804457695294</v>
+        <v>7.343631613180672</v>
       </c>
       <c r="I7">
-        <v>17.49862721634075</v>
+        <v>10.68579293959583</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.245975306744432</v>
+        <v>10.91124942669042</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.85261617245658</v>
+        <v>11.41293174873812</v>
       </c>
       <c r="O7">
-        <v>17.73714466139774</v>
+        <v>11.05889495395444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.848215898451278</v>
+        <v>12.81313112723068</v>
       </c>
       <c r="C8">
-        <v>6.032721064041188</v>
+        <v>7.653447467088345</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.22565488309331</v>
+        <v>28.92514383107715</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>20.54032018964961</v>
+        <v>15.3025720516981</v>
       </c>
       <c r="H8">
-        <v>12.31637986973932</v>
+        <v>7.226636280193064</v>
       </c>
       <c r="I8">
-        <v>17.37987406823349</v>
+        <v>10.41273912519</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.615380584365468</v>
+        <v>11.72714855292847</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.79309391290696</v>
+        <v>11.23551436987847</v>
       </c>
       <c r="O8">
-        <v>17.63266634848792</v>
+        <v>10.94407127278591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.688976730472502</v>
+        <v>14.63912950094721</v>
       </c>
       <c r="C9">
-        <v>6.394263622634827</v>
+        <v>8.514225186060623</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.51991150758923</v>
+        <v>33.86236219632866</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>20.39086609009178</v>
+        <v>15.95647494157074</v>
       </c>
       <c r="H9">
-        <v>12.21060445998748</v>
+        <v>7.035219536628354</v>
       </c>
       <c r="I9">
-        <v>17.17343727168884</v>
+        <v>9.942724620794682</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.285130253034328</v>
+        <v>13.17821611549365</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.68846446862405</v>
+        <v>10.90897766346572</v>
       </c>
       <c r="O9">
-        <v>17.45925033676272</v>
+        <v>10.81693745247359</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.291192842729885</v>
+        <v>15.84934135784615</v>
       </c>
       <c r="C10">
-        <v>6.643654007435542</v>
+        <v>9.098243570716324</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.16011375280389</v>
+        <v>37.1972259220796</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>20.32132342866698</v>
+        <v>16.57416412214876</v>
       </c>
       <c r="H10">
-        <v>12.14211620115464</v>
+        <v>6.920894539576512</v>
       </c>
       <c r="I10">
-        <v>17.03786774348147</v>
+        <v>9.64341387508553</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.740800599173552</v>
+        <v>14.15115518403995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.61890712498395</v>
+        <v>10.68185705897729</v>
       </c>
       <c r="O10">
-        <v>17.35115724205063</v>
+        <v>10.79329358436815</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.573210733458268</v>
+        <v>16.37158050068911</v>
       </c>
       <c r="C11">
-        <v>6.753265785869981</v>
+        <v>9.353211962822281</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.86377456740234</v>
+        <v>38.65507874601705</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>20.29857340001278</v>
+        <v>16.88631719919256</v>
       </c>
       <c r="H11">
-        <v>12.11296042591209</v>
+        <v>6.875374391608421</v>
       </c>
       <c r="I11">
-        <v>16.97968680761712</v>
+        <v>9.518854499613385</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.939662485897566</v>
+        <v>14.57331560311416</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.58883953747797</v>
+        <v>10.58126369549831</v>
       </c>
       <c r="O11">
-        <v>17.30620605337252</v>
+        <v>10.79992338826656</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.677646113287517</v>
+        <v>16.56529556652788</v>
       </c>
       <c r="C12">
-        <v>6.794197690229827</v>
+        <v>9.448216602632053</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.12416015724998</v>
+        <v>39.19900330532477</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>20.29124653252499</v>
+        <v>17.00907662746551</v>
       </c>
       <c r="H12">
-        <v>12.1022074228034</v>
+        <v>6.859141865048134</v>
       </c>
       <c r="I12">
-        <v>16.95815712335235</v>
+        <v>9.473512619252991</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.01371741606239</v>
+        <v>14.73023341456074</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.57767922034431</v>
+        <v>10.54356054748922</v>
       </c>
       <c r="O12">
-        <v>17.28979364064147</v>
+        <v>10.80512269411386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.655259130647355</v>
+        <v>16.52375505681912</v>
       </c>
       <c r="C13">
-        <v>6.785408233898822</v>
+        <v>9.427824452945515</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.06835115681102</v>
+        <v>39.08221471050537</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>20.29276706345696</v>
+        <v>16.9824347017287</v>
       </c>
       <c r="H13">
-        <v>12.10451047940453</v>
+        <v>6.862591917777008</v>
       </c>
       <c r="I13">
-        <v>16.9627715868505</v>
+        <v>9.483193856713921</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.997824503372698</v>
+        <v>14.69656934655989</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.58007277166206</v>
+        <v>10.55166331187561</v>
       </c>
       <c r="O13">
-        <v>17.29330119152986</v>
+        <v>10.80388031972036</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.581850018512855</v>
+        <v>16.3875984812615</v>
       </c>
       <c r="C14">
-        <v>6.756644945241762</v>
+        <v>9.361059054115433</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.88531822358878</v>
+        <v>38.69998844189099</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>20.29794474371929</v>
+        <v>16.89632507835774</v>
       </c>
       <c r="H14">
-        <v>12.11207000430963</v>
+        <v>6.874018355175597</v>
       </c>
       <c r="I14">
-        <v>16.97790548147816</v>
+        <v>9.515086621536529</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.945780278603705</v>
+        <v>14.58628435522467</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.58791685395447</v>
+        <v>10.57815404367185</v>
       </c>
       <c r="O14">
-        <v>17.30484356117453</v>
+        <v>10.80029616296128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.536577373750308</v>
+        <v>16.30367258298302</v>
       </c>
       <c r="C15">
-        <v>6.738950955617379</v>
+        <v>9.319961869709424</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.77241501713335</v>
+        <v>38.46481654526991</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>20.30128425713919</v>
+        <v>16.84417531220661</v>
       </c>
       <c r="H15">
-        <v>12.11673789551954</v>
+        <v>6.881150502917108</v>
       </c>
       <c r="I15">
-        <v>16.98724083573115</v>
+        <v>9.534864702790692</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.913737880073434</v>
+        <v>14.51834803327242</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.59275094137301</v>
+        <v>10.59443102455633</v>
       </c>
       <c r="O15">
-        <v>17.31199306651768</v>
+        <v>10.79845655714805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.272432782746746</v>
+        <v>15.81464429177273</v>
       </c>
       <c r="C16">
-        <v>6.63641131097028</v>
+        <v>9.081364590974472</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.11327592698186</v>
+        <v>37.10079234270908</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>20.32298990342154</v>
+        <v>16.55439793844464</v>
       </c>
       <c r="H16">
-        <v>12.1440618483502</v>
+        <v>6.924005947772563</v>
       </c>
       <c r="I16">
-        <v>17.04174026035316</v>
+        <v>9.651800589747035</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.727631595594504</v>
+        <v>14.12315401141751</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.62090372719425</v>
+        <v>10.68848568355097</v>
       </c>
       <c r="O16">
-        <v>17.3541800710407</v>
+        <v>10.79322623005545</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.106198526225542</v>
+        <v>15.50740910268483</v>
       </c>
       <c r="C17">
-        <v>6.572506042820933</v>
+        <v>8.932243527465307</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.69805961939161</v>
+        <v>36.24910622364263</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>20.33858907771597</v>
+        <v>16.38466887056198</v>
       </c>
       <c r="H17">
-        <v>12.16133647299826</v>
+        <v>6.952007213464438</v>
       </c>
       <c r="I17">
-        <v>17.07606802039474</v>
+        <v>9.726614038956678</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.611274829016768</v>
+        <v>13.87547353974121</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.63857723694932</v>
+        <v>10.74688119834916</v>
       </c>
       <c r="O17">
-        <v>17.38114340088217</v>
+        <v>10.7946039200604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.012600623841639</v>
+        <v>15.32803074147311</v>
       </c>
       <c r="C18">
-        <v>6.535389536220274</v>
+        <v>8.845465353322247</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.45523827114247</v>
+        <v>35.75364274045103</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>20.34839708041192</v>
+        <v>16.28997560095205</v>
       </c>
       <c r="H18">
-        <v>12.17146061225906</v>
+        <v>6.968718687788487</v>
       </c>
       <c r="I18">
-        <v>17.09614094585363</v>
+        <v>9.770725853040876</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.543558471972394</v>
+        <v>13.73109062759423</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.64889080705414</v>
+        <v>10.7807253596863</v>
       </c>
       <c r="O18">
-        <v>17.39704912627913</v>
+        <v>10.79702125977498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.983742870179821</v>
+        <v>15.26683803858895</v>
       </c>
       <c r="C19">
-        <v>6.522761479357531</v>
+        <v>8.815911035957043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.37233515454393</v>
+        <v>35.58491516058682</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>20.35186111186997</v>
+        <v>16.25841483350143</v>
       </c>
       <c r="H19">
-        <v>12.1749207989079</v>
+        <v>6.974478869638087</v>
       </c>
       <c r="I19">
-        <v>17.10299370748925</v>
+        <v>9.785842534285576</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.520496264180505</v>
+        <v>13.68187503392418</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.65240828789184</v>
+        <v>10.79222856584985</v>
       </c>
       <c r="O19">
-        <v>17.40250265818697</v>
+        <v>10.79811310262417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.124053509714576</v>
+        <v>15.5403904654484</v>
       </c>
       <c r="C20">
-        <v>6.579346294948437</v>
+        <v>8.948222088026922</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.74267384416363</v>
+        <v>36.34034620548563</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>20.33684194119139</v>
+        <v>16.40243294426346</v>
       </c>
       <c r="H20">
-        <v>12.15947807789887</v>
+        <v>6.948963220988668</v>
       </c>
       <c r="I20">
-        <v>17.07237977083548</v>
+        <v>9.718537047099678</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.623743365858379</v>
+        <v>13.90203872004776</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.6366805255479</v>
+        <v>10.74063835768727</v>
       </c>
       <c r="O20">
-        <v>17.37823198748417</v>
+        <v>10.79428772911621</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.603476140458667</v>
+        <v>16.42770054959865</v>
       </c>
       <c r="C21">
-        <v>6.765109224256903</v>
+        <v>9.380711653191115</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.93924406267622</v>
+        <v>38.81247508588165</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>20.2963888982448</v>
+        <v>16.9214934894117</v>
       </c>
       <c r="H21">
-        <v>12.1098417809859</v>
+        <v>6.870634252777999</v>
       </c>
       <c r="I21">
-        <v>16.97344665848957</v>
+        <v>9.505668024633</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.961101128087309</v>
+        <v>14.61875766664028</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.5856067394885</v>
+        <v>10.57036252347197</v>
       </c>
       <c r="O21">
-        <v>17.30143672103718</v>
+        <v>10.80127442989594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.903055614602405</v>
+        <v>16.98404337857578</v>
       </c>
       <c r="C22">
-        <v>6.883150877927369</v>
+        <v>9.65435771651304</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.68587414653503</v>
+        <v>40.38095267673273</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.2774624093496</v>
+        <v>17.28729419132293</v>
       </c>
       <c r="H22">
-        <v>12.07907832149504</v>
+        <v>6.825337492038697</v>
       </c>
       <c r="I22">
-        <v>16.91171536899926</v>
+        <v>9.377277538164664</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.17428496795717</v>
+        <v>15.07001183995872</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.55354184059526</v>
+        <v>10.46134618961983</v>
       </c>
       <c r="O22">
-        <v>17.2548011881971</v>
+        <v>10.82160160138116</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.744425455613275</v>
+        <v>16.68925981031236</v>
       </c>
       <c r="C23">
-        <v>6.82046507291373</v>
+        <v>9.509132371352889</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.29061186321919</v>
+        <v>39.54801102585673</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>20.28687334874227</v>
+        <v>17.08960950371047</v>
       </c>
       <c r="H23">
-        <v>12.09534390760209</v>
+        <v>6.848948271432842</v>
       </c>
       <c r="I23">
-        <v>16.94439457488055</v>
+        <v>9.444762433568139</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.06118401950767</v>
+        <v>14.83073913482994</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.57053542937664</v>
+        <v>10.51932336138109</v>
       </c>
       <c r="O23">
-        <v>17.27936531992367</v>
+        <v>10.80924760111167</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.115986189770844</v>
+        <v>15.52548814230726</v>
       </c>
       <c r="C24">
-        <v>6.576254987935873</v>
+        <v>8.941001439740456</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.72251655142715</v>
+        <v>36.2991147590375</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>20.33762920635358</v>
+        <v>16.39439282225731</v>
       </c>
       <c r="H24">
-        <v>12.16031765797333</v>
+        <v>6.950337505472129</v>
       </c>
       <c r="I24">
-        <v>17.07404617735142</v>
+        <v>9.722185238817122</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.618108895616725</v>
+        <v>13.89003479392547</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.63753755262994</v>
+        <v>10.74345989915627</v>
       </c>
       <c r="O24">
-        <v>17.37954697875008</v>
+        <v>10.79442563091128</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.469545120792024</v>
+        <v>14.16825691032767</v>
       </c>
       <c r="C25">
-        <v>6.299192273888914</v>
+        <v>8.289758425827873</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.87801031873708</v>
+        <v>32.57943328742439</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>20.42427881740284</v>
+        <v>15.75601776820978</v>
       </c>
       <c r="H25">
-        <v>12.23759884959209</v>
+        <v>7.082627390997939</v>
       </c>
       <c r="I25">
-        <v>17.22645557613428</v>
+        <v>10.06228890788731</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.110137549535434</v>
+        <v>12.80190653922759</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.71548092939526</v>
+        <v>10.99505244355587</v>
       </c>
       <c r="O25">
-        <v>17.50278163412587</v>
+        <v>10.83982245331527</v>
       </c>
     </row>
   </sheetData>
